--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_5_sawtooth_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_5_sawtooth_05_.xlsx
@@ -577,47 +577,47 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.003726709213812462</v>
+        <v>0.003381731363802154</v>
       </c>
       <c r="H2" t="n">
-        <v>0.008420411000506592</v>
+        <v>0.009328914107040426</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>4.669145552944912</v>
+        <v>4.588900240994006</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.548275860726334, 7.790015245163489]</t>
+          <t>[1.358375016508969, 7.819425465479043]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.003525036534155479</v>
+        <v>0.005558440902627915</v>
       </c>
       <c r="N2" t="n">
-        <v>0.003525036534155479</v>
+        <v>0.005558440902627915</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.660421342437848</v>
+        <v>-1.371105502467618</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.5786846606042335, -0.7421580242714629]</t>
+          <t>[-2.251631971942234, -0.49057903299300154]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.0004444184781260407</v>
+        <v>0.002408516219151613</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0004444184781260407</v>
+        <v>0.002408516219151613</v>
       </c>
       <c r="S2" t="n">
-        <v>12.14839561455716</v>
+        <v>11.44183781978351</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[10.248399672360076, 14.048391556754236]</t>
+          <t>[9.580492463744527, 13.303183175822497]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>6.868228228228389</v>
+        <v>5.671491491491629</v>
       </c>
       <c r="X2" t="n">
-        <v>3.069889889889962</v>
+        <v>2.029249249249302</v>
       </c>
       <c r="Y2" t="n">
-        <v>10.66656656656682</v>
+        <v>9.313733733733956</v>
       </c>
     </row>
     <row r="3">
@@ -652,39 +652,39 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.32000000000036</v>
+        <v>25.14000000000049</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>2.457165417912854e-06</v>
+        <v>3.72624563649282e-07</v>
       </c>
       <c r="H3" t="n">
-        <v>3.480182460983824e-05</v>
+        <v>5.185536667207232e-06</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>5.963318819306721</v>
+        <v>6.380136102588835</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[2.910915736625091, 9.015721901988352]</t>
+          <t>[3.204317569495023, 9.555954635682646]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.0001484978972772222</v>
+        <v>9.690274129736665e-05</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0002969957945544444</v>
+        <v>0.0001938054825947333</v>
       </c>
       <c r="O3" t="n">
-        <v>2.421447791055196</v>
+        <v>-2.402579366709311</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.9182898084982725, 2.924605773612119]</t>
+          <t>[-2.8680005005744658, -1.9371582328441566]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>11.63294485478929</v>
+        <v>12.02899566431611</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[10.02682545318781, 13.23906425639077]</t>
+          <t>[10.416180591321213, 13.641810737311014]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>14.94742742742765</v>
+        <v>9.61309309309328</v>
       </c>
       <c r="X3" t="n">
-        <v>12.99987987988008</v>
+        <v>7.750870870871021</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.89497497497523</v>
+        <v>11.47531531531554</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_5_sawtooth_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_5_sawtooth_05_.xlsx
@@ -577,47 +577,47 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.003381731363802154</v>
+        <v>0.008543073068507989</v>
       </c>
       <c r="H2" t="n">
-        <v>0.009328914107040426</v>
+        <v>0.02652621560765827</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>4.588900240994006</v>
+        <v>4.288735615042078</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.358375016508969, 7.819425465479043]</t>
+          <t>[0.979929302228892, 7.597541927855263]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.005558440902627915</v>
+        <v>0.01129332170436737</v>
       </c>
       <c r="N2" t="n">
-        <v>0.005558440902627915</v>
+        <v>0.01129332170436737</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.371105502467618</v>
+        <v>-1.396263401595464</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.251631971942234, -0.49057903299300154]</t>
+          <t>[-2.3648425180175416, -0.42768428517338597]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.002408516219151613</v>
+        <v>0.004904823174808781</v>
       </c>
       <c r="R2" t="n">
-        <v>0.002408516219151613</v>
+        <v>0.004904823174808781</v>
       </c>
       <c r="S2" t="n">
-        <v>11.44183781978351</v>
+        <v>11.72994535910076</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[9.580492463744527, 13.303183175822497]</t>
+          <t>[9.827072102550414, 13.632818615651107]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>5.671491491491629</v>
+        <v>5.775555555555695</v>
       </c>
       <c r="X2" t="n">
-        <v>2.029249249249302</v>
+        <v>1.769089089089134</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.313733733733956</v>
+        <v>9.782022022022254</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.14000000000049</v>
+        <v>24.92000000000046</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>3.72624563649282e-07</v>
+        <v>0.001029612944681735</v>
       </c>
       <c r="H3" t="n">
-        <v>5.185536667207232e-06</v>
+        <v>0.008841413529764971</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>6.380136102588835</v>
+        <v>4.302030038907724</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[3.204317569495023, 9.555954635682646]</t>
+          <t>[1.21290933832368, 7.391150739491767]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>9.690274129736665e-05</v>
+        <v>0.00650914226620336</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0001938054825947333</v>
+        <v>0.01129332170436737</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.402579366709311</v>
+        <v>-2.528368862348542</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-2.8680005005744658, -1.9371582328441566]</t>
+          <t>[-3.232790037928236, -1.8239476867688484]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1.235767044249769e-11</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>2.471534088499538e-11</v>
       </c>
       <c r="S3" t="n">
-        <v>12.02899566431611</v>
+        <v>11.18918528614905</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[10.416180591321213, 13.641810737311014]</t>
+          <t>[9.57446937338289, 12.80390119891522]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>9.61309309309328</v>
+        <v>10.02786786786805</v>
       </c>
       <c r="X3" t="n">
-        <v>7.750870870871021</v>
+        <v>7.234034034034165</v>
       </c>
       <c r="Y3" t="n">
-        <v>11.47531531531554</v>
+        <v>12.82170170170194</v>
       </c>
     </row>
   </sheetData>
